--- a/team_specific_matrix/Little Rock_B.xlsx
+++ b/team_specific_matrix/Little Rock_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1906474820143885</v>
+        <v>0.2011331444759207</v>
       </c>
       <c r="C2">
-        <v>0.5863309352517986</v>
+        <v>0.5637393767705382</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01438848920863309</v>
+        <v>0.0169971671388102</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1474820143884892</v>
+        <v>0.1529745042492918</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06115107913669065</v>
+        <v>0.06515580736543909</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005882352941176471</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="C3">
-        <v>0.05294117647058823</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005882352941176471</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7823529411764706</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1529411764705882</v>
+        <v>0.1497584541062802</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06060606060606061</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0303030303030303</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P4">
-        <v>0.5757575757575758</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3333333333333333</v>
+        <v>0.3421052631578947</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06806282722513089</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02094240837696335</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04712041884816754</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2460732984293194</v>
+        <v>0.2555066079295154</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01047120418848168</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1570680628272251</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="R6">
-        <v>0.07853403141361257</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="S6">
-        <v>0.3717277486910995</v>
+        <v>0.3832599118942731</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1277777777777778</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005555555555555556</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="E7">
-        <v>0.005555555555555556</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="F7">
-        <v>0.04444444444444445</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1222222222222222</v>
+        <v>0.1302325581395349</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01111111111111111</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="R7">
-        <v>0.08888888888888889</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="S7">
-        <v>0.3944444444444444</v>
+        <v>0.386046511627907</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08742004264392324</v>
+        <v>0.1005484460694698</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02132196162046908</v>
+        <v>0.02010968921389397</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05543710021321962</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1471215351812367</v>
+        <v>0.1352833638025594</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006396588486140725</v>
+        <v>0.007312614259597806</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1428571428571428</v>
+        <v>0.1425959780621572</v>
       </c>
       <c r="R8">
-        <v>0.08102345415778252</v>
+        <v>0.08409506398537477</v>
       </c>
       <c r="S8">
-        <v>0.4584221748400853</v>
+        <v>0.4552102376599634</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0728476821192053</v>
+        <v>0.07428571428571429</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01324503311258278</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05960264900662252</v>
+        <v>0.05142857142857143</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1258278145695364</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006622516556291391</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1788079470198675</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R9">
-        <v>0.1059602649006623</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="S9">
-        <v>0.4370860927152318</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1215970961887477</v>
+        <v>0.1313755795981453</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01542649727767695</v>
+        <v>0.0170015455950541</v>
       </c>
       <c r="E10">
-        <v>0.0009074410163339383</v>
+        <v>0.0007727975270479134</v>
       </c>
       <c r="F10">
-        <v>0.07531760435571688</v>
+        <v>0.07573415765069552</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1197822141560799</v>
+        <v>0.1182380216383308</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01996370235934664</v>
+        <v>0.01931993817619784</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.220508166969147</v>
+        <v>0.2202472952086553</v>
       </c>
       <c r="R10">
-        <v>0.07078039927404718</v>
+        <v>0.07032457496136012</v>
       </c>
       <c r="S10">
-        <v>0.3557168784029038</v>
+        <v>0.3469860896445132</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1573033707865168</v>
+        <v>0.1545741324921136</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08239700374531835</v>
+        <v>0.07570977917981073</v>
       </c>
       <c r="K11">
-        <v>0.1835205992509363</v>
+        <v>0.1829652996845426</v>
       </c>
       <c r="L11">
-        <v>0.5692883895131086</v>
+        <v>0.5772870662460567</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00749063670411985</v>
+        <v>0.009463722397476341</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7239263803680982</v>
+        <v>0.7268041237113402</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1717791411042945</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="K12">
-        <v>0.006134969325153374</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="L12">
-        <v>0.06134969325153374</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03680981595092025</v>
+        <v>0.03092783505154639</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3055555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02777777777777778</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02857142857142857</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1771428571428571</v>
+        <v>0.1893203883495146</v>
       </c>
       <c r="I15">
-        <v>0.05714285714285714</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="J15">
-        <v>0.3542857142857143</v>
+        <v>0.354368932038835</v>
       </c>
       <c r="K15">
-        <v>0.05142857142857143</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2914285714285714</v>
+        <v>0.2718446601941747</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1559139784946237</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="I16">
-        <v>0.08064516129032258</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J16">
-        <v>0.4193548387096774</v>
+        <v>0.4199134199134199</v>
       </c>
       <c r="K16">
-        <v>0.1075268817204301</v>
+        <v>0.1125541125541126</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03763440860215054</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05376344086021505</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1290322580645161</v>
+        <v>0.1255411255411255</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01262626262626263</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2146464646464646</v>
+        <v>0.2069716775599129</v>
       </c>
       <c r="I17">
-        <v>0.06060606060606061</v>
+        <v>0.06100217864923747</v>
       </c>
       <c r="J17">
-        <v>0.4217171717171717</v>
+        <v>0.4270152505446623</v>
       </c>
       <c r="K17">
-        <v>0.09595959595959595</v>
+        <v>0.1002178649237473</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01262626262626263</v>
+        <v>0.01525054466230937</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05555555555555555</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1262626262626263</v>
+        <v>0.1241830065359477</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2222222222222222</v>
+        <v>0.2287234042553191</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="J18">
-        <v>0.3950617283950617</v>
+        <v>0.3936170212765958</v>
       </c>
       <c r="K18">
-        <v>0.1049382716049383</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06790123456790123</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09876543209876543</v>
+        <v>0.1117021276595745</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01549053356282272</v>
+        <v>0.01698670605612999</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2521514629948365</v>
+        <v>0.2518463810930576</v>
       </c>
       <c r="I19">
-        <v>0.07142857142857142</v>
+        <v>0.07090103397341212</v>
       </c>
       <c r="J19">
-        <v>0.333907056798623</v>
+        <v>0.3301329394387001</v>
       </c>
       <c r="K19">
-        <v>0.1110154905335628</v>
+        <v>0.1115214180206795</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02065404475043029</v>
+        <v>0.02141802067946824</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06282271944922548</v>
+        <v>0.06277695716395865</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1325301204819277</v>
+        <v>0.1344165435745938</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Little Rock_B.xlsx
+++ b/team_specific_matrix/Little Rock_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2011331444759207</v>
+        <v>0.1989389920424403</v>
       </c>
       <c r="C2">
-        <v>0.5637393767705382</v>
+        <v>0.5702917771883289</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0169971671388102</v>
+        <v>0.01591511936339523</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1529745042492918</v>
+        <v>0.1485411140583554</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06515580736543909</v>
+        <v>0.06631299734748011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004830917874396135</v>
+        <v>0.004504504504504504</v>
       </c>
       <c r="C3">
-        <v>0.04347826086956522</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01932367149758454</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7826086956521739</v>
+        <v>0.7792792792792793</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1497584541062802</v>
+        <v>0.1576576576576577</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02631578947368421</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P4">
-        <v>0.5789473684210527</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3421052631578947</v>
+        <v>0.3488372093023256</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06607929515418502</v>
+        <v>0.05976095617529881</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01762114537444934</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05286343612334802</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2555066079295154</v>
+        <v>0.2629482071713147</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.00881057268722467</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1497797356828194</v>
+        <v>0.1434262948207171</v>
       </c>
       <c r="R6">
-        <v>0.06607929515418502</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="S6">
-        <v>0.3832599118942731</v>
+        <v>0.3745019920318725</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1255813953488372</v>
+        <v>0.1255060728744939</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009302325581395349</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="E7">
-        <v>0.004651162790697674</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="F7">
-        <v>0.05116279069767442</v>
+        <v>0.04453441295546558</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1302325581395349</v>
+        <v>0.1417004048582996</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01395348837209302</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.186046511627907</v>
+        <v>0.1700404858299595</v>
       </c>
       <c r="R7">
-        <v>0.09302325581395349</v>
+        <v>0.0931174089068826</v>
       </c>
       <c r="S7">
-        <v>0.386046511627907</v>
+        <v>0.4008097165991903</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1005484460694698</v>
+        <v>0.1001642036124795</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02010968921389397</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05484460694698354</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1352833638025594</v>
+        <v>0.1247947454844007</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007312614259597806</v>
+        <v>0.008210180623973728</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1425959780621572</v>
+        <v>0.1412151067323481</v>
       </c>
       <c r="R8">
-        <v>0.08409506398537477</v>
+        <v>0.08538587848932677</v>
       </c>
       <c r="S8">
-        <v>0.4552102376599634</v>
+        <v>0.4663382594417077</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07428571428571429</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01142857142857143</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05142857142857143</v>
+        <v>0.05319148936170213</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1314285714285714</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01142857142857143</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714285714285714</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="R9">
-        <v>0.1085714285714286</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="S9">
-        <v>0.44</v>
+        <v>0.4414893617021277</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1313755795981453</v>
+        <v>0.1259731068648266</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0170015455950541</v>
+        <v>0.01840056617126681</v>
       </c>
       <c r="E10">
-        <v>0.0007727975270479134</v>
+        <v>0.0007077140835102619</v>
       </c>
       <c r="F10">
-        <v>0.07573415765069552</v>
+        <v>0.07501769285208776</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1182380216383308</v>
+        <v>0.1196036801132343</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01931993817619784</v>
+        <v>0.01981599433828733</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2202472952086553</v>
+        <v>0.2137296532200991</v>
       </c>
       <c r="R10">
-        <v>0.07032457496136012</v>
+        <v>0.07077140835102619</v>
       </c>
       <c r="S10">
-        <v>0.3469860896445132</v>
+        <v>0.3559801840056617</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1545741324921136</v>
+        <v>0.1497175141242938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07570977917981073</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="K11">
-        <v>0.1829652996845426</v>
+        <v>0.1751412429378531</v>
       </c>
       <c r="L11">
-        <v>0.5772870662460567</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009463722397476341</v>
+        <v>0.008474576271186441</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7268041237113402</v>
+        <v>0.7366071428571429</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1855670103092784</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K12">
-        <v>0.005154639175257732</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="L12">
-        <v>0.05154639175257732</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03092783505154639</v>
+        <v>0.02678571428571428</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6444444444444445</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02222222222222222</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02427184466019417</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1893203883495146</v>
+        <v>0.1929824561403509</v>
       </c>
       <c r="I15">
-        <v>0.04854368932038835</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="J15">
-        <v>0.354368932038835</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="K15">
-        <v>0.05825242718446602</v>
+        <v>0.06140350877192982</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004854368932038835</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04854368932038835</v>
+        <v>0.04824561403508772</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2718446601941747</v>
+        <v>0.2675438596491228</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01731601731601732</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1471861471861472</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="I16">
-        <v>0.08658008658008658</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="J16">
-        <v>0.4199134199134199</v>
+        <v>0.4105691056910569</v>
       </c>
       <c r="K16">
-        <v>0.1125541125541126</v>
+        <v>0.1138211382113821</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0303030303030303</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06060606060606061</v>
+        <v>0.05691056910569105</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1255411255411255</v>
+        <v>0.1341463414634146</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0130718954248366</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2069716775599129</v>
+        <v>0.2061224489795918</v>
       </c>
       <c r="I17">
-        <v>0.06100217864923747</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="J17">
-        <v>0.4270152505446623</v>
+        <v>0.4224489795918367</v>
       </c>
       <c r="K17">
-        <v>0.1002178649237473</v>
+        <v>0.1</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01525054466230937</v>
+        <v>0.0163265306122449</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05228758169934641</v>
+        <v>0.05306122448979592</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1241830065359477</v>
+        <v>0.1244897959183673</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2287234042553191</v>
+        <v>0.2274881516587678</v>
       </c>
       <c r="I18">
-        <v>0.1063829787234043</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="J18">
-        <v>0.3936170212765958</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="K18">
-        <v>0.101063829787234</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05851063829787234</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1117021276595745</v>
+        <v>0.1042654028436019</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01698670605612999</v>
+        <v>0.01727574750830565</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2518463810930576</v>
+        <v>0.2551495016611295</v>
       </c>
       <c r="I19">
-        <v>0.07090103397341212</v>
+        <v>0.07109634551495017</v>
       </c>
       <c r="J19">
-        <v>0.3301329394387001</v>
+        <v>0.3282392026578073</v>
       </c>
       <c r="K19">
-        <v>0.1115214180206795</v>
+        <v>0.1136212624584718</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02141802067946824</v>
+        <v>0.02192691029900332</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06277695716395865</v>
+        <v>0.06378737541528239</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1344165435745938</v>
+        <v>0.1289036544850498</v>
       </c>
     </row>
   </sheetData>
